--- a/core-db/src/main/java/hbi/core/db/data/2017-04-10-init-data.xlsx
+++ b/core-db/src/main/java/hbi/core/db/data/2017-04-10-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -785,16 +785,10 @@
     <t>salesman</t>
   </si>
   <si>
-    <t>73cad6006763b3001a23926a907fc5acb251964190fe4f4dfeab3780b8afd860489fe1fbaebf895c</t>
-  </si>
-  <si>
     <t>jajabjbj@gmail.com</t>
   </si>
   <si>
     <t>salesmanager</t>
-  </si>
-  <si>
-    <t>dfab24bb7f7c575e28fd2d360cbd69f2537edad4f8f62fed33b8a68402e687d4770310eb6e72b4f1</t>
   </si>
   <si>
     <t>842269153@qq.com</t>
@@ -1242,6 +1236,14 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0850e44e2766609756cac416f2a00aa1550f9c07dbb4b1218072a5569310b4af8c2016432305e38e</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5bf2fa7e4b21cc983cfc1fc9ece79295be6104745b8d566281af669b36ab9e480b257c852cf63476</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2286,25 +2288,25 @@
     </row>
     <row r="8" spans="1:26">
       <c r="E8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>280</v>
       </c>
-      <c r="I8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J8" t="s">
-        <v>282</v>
-      </c>
       <c r="K8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L8">
         <v>450</v>
@@ -2313,7 +2315,7 @@
         <v>320</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O8" t="s">
         <v>82</v>
@@ -2330,25 +2332,25 @@
     </row>
     <row r="9" spans="1:26">
       <c r="E9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" t="s">
         <v>283</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" t="s">
-        <v>284</v>
-      </c>
-      <c r="H9" t="s">
-        <v>285</v>
       </c>
       <c r="I9" t="s">
         <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L9">
         <v>450</v>
@@ -2357,7 +2359,7 @@
         <v>320</v>
       </c>
       <c r="N9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
         <v>82</v>
@@ -2374,25 +2376,25 @@
     </row>
     <row r="10" spans="1:26">
       <c r="E10" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>288</v>
       </c>
-      <c r="I10" t="s">
-        <v>289</v>
-      </c>
-      <c r="J10" t="s">
-        <v>290</v>
-      </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L10">
         <v>450</v>
@@ -2401,7 +2403,7 @@
         <v>320</v>
       </c>
       <c r="N10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O10" t="s">
         <v>82</v>
@@ -2508,13 +2510,13 @@
         <v>CUSTOMERS_LOV</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2532,10 +2534,10 @@
         <v>200</v>
       </c>
       <c r="O13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q13" t="s">
         <v>82</v>
@@ -2559,13 +2561,13 @@
         <v>CUSTOMERS_LOV</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2583,10 +2585,10 @@
         <v>200</v>
       </c>
       <c r="O14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q14" t="s">
         <v>82</v>
@@ -2610,13 +2612,13 @@
         <v>COMPANYS_LOV</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H15" t="s">
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2634,10 +2636,10 @@
         <v>200</v>
       </c>
       <c r="O15" t="s">
+        <v>290</v>
+      </c>
+      <c r="P15" t="s">
         <v>292</v>
-      </c>
-      <c r="P15" t="s">
-        <v>294</v>
       </c>
       <c r="Q15" t="s">
         <v>82</v>
@@ -2661,13 +2663,13 @@
         <v>COMPANYS_LOV</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -2685,10 +2687,10 @@
         <v>200</v>
       </c>
       <c r="O16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q16" t="s">
         <v>82</v>
@@ -2712,13 +2714,13 @@
         <v>ITEMS_LOV</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2736,10 +2738,10 @@
         <v>200</v>
       </c>
       <c r="O17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q17" t="s">
         <v>82</v>
@@ -2756,20 +2758,20 @@
     </row>
     <row r="18" spans="5:26">
       <c r="E18" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F18" t="str">
         <f>$E$10</f>
         <v>ITEMS_LOV</v>
       </c>
       <c r="G18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2787,10 +2789,10 @@
         <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q18" t="s">
         <v>82</v>
@@ -2834,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2887,7 +2889,7 @@
         <v>42835</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>49</v>
@@ -3033,7 +3035,7 @@
         <v>42835</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>59</v>
@@ -3072,10 +3074,10 @@
         <v>177</v>
       </c>
       <c r="G15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" t="s">
         <v>178</v>
-      </c>
-      <c r="H15" t="s">
-        <v>179</v>
       </c>
       <c r="I15">
         <v>18711180333</v>
@@ -3089,16 +3091,16 @@
     </row>
     <row r="16" spans="1:13" ht="31.5">
       <c r="E16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" t="s">
         <v>180</v>
-      </c>
-      <c r="F16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" t="s">
-        <v>182</v>
       </c>
       <c r="I16">
         <v>234543454</v>
@@ -3115,7 +3117,7 @@
         <v>42835</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>65</v>
@@ -3237,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3344,29 +3346,29 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>309</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
       <c r="A8" s="18"/>
       <c r="E8" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H8"/>
     </row>
@@ -3375,35 +3377,35 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="15"/>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -3427,7 +3429,7 @@
         <v>SALESMAN</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -3451,7 +3453,7 @@
         <v>SALES_MANAGER</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -3475,7 +3477,7 @@
         <v>SALES_MANAGER</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -3576,7 +3578,7 @@
         <v>42835</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
@@ -3611,10 +3613,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="E8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -3626,16 +3628,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3737,7 @@
         <v>42835</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>86</v>
@@ -3782,13 +3784,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="E8" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
         <v>100</v>
@@ -3805,19 +3807,19 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3951,7 +3953,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>ACCOUNT!$E$8</f>
@@ -3964,7 +3966,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="E9" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>ACCOUNT!$E$9</f>
@@ -4286,7 +4288,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="F4" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -4325,24 +4327,24 @@
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="E9" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>114</v>
@@ -4353,122 +4355,122 @@
     </row>
     <row r="10" spans="1:8">
       <c r="E10" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="E11" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="E13" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="E15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="5:8">
       <c r="E17" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>114</v>
@@ -4479,108 +4481,108 @@
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>114</v>
@@ -4591,52 +4593,52 @@
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="5:8">
       <c r="E29" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="5:8">
       <c r="E30" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>113</v>
@@ -4647,10 +4649,10 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>113</v>
@@ -4661,10 +4663,10 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>113</v>
@@ -4675,10 +4677,10 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>114</v>
@@ -4689,66 +4691,66 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>114</v>
@@ -4759,416 +4761,416 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="5:8">
       <c r="E40" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="5:8">
       <c r="E49" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="5:8">
       <c r="E50" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="5:8">
       <c r="E51" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="5:8">
       <c r="E52" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="5:8">
       <c r="E53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="5:8">
       <c r="E54" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="5:8">
       <c r="E55" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="5:8">
       <c r="E56" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="5:8">
       <c r="E57" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="5:8">
       <c r="E58" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="5:8">
       <c r="E59" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="5:8">
       <c r="E60" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="5:8">
       <c r="E61" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="5:8">
       <c r="E62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="5:8">
       <c r="E63" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="5:8">
       <c r="E64" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="5:8">
       <c r="E65" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="5:8">
       <c r="E66" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="5:8">
       <c r="E67" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="5:8">
       <c r="E68" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>113</v>
@@ -5179,10 +5181,10 @@
     </row>
     <row r="69" spans="5:8">
       <c r="E69" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>114</v>
@@ -5193,30 +5195,30 @@
     </row>
     <row r="70" spans="5:8">
       <c r="E70" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="5:8">
       <c r="E71" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5345,16 +5347,16 @@
     <row r="8" spans="1:11" s="15" customFormat="1">
       <c r="A8" s="18"/>
       <c r="E8" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5402,13 +5404,13 @@
         <v>HAP_OM_ORDER_STATUS</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -5423,13 +5425,13 @@
         <v>HAP_OM_ORDER_STATUS</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -5444,13 +5446,13 @@
         <v>HAP_OM_ORDER_STATUS</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -5465,13 +5467,13 @@
         <v>HAP_OM_ORDER_STATUS</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
